--- a/biology/Zoologie/Amblyrhiza_inundata/Amblyrhiza_inundata.xlsx
+++ b/biology/Zoologie/Amblyrhiza_inundata/Amblyrhiza_inundata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hutia géant d'Anguilla (Amblyrhiza inundata), aussi appelé blunt-toothed giant hutia  (hutia géant à dents émoussées) par les anglophones, est une espèce éteinte de rongeur géant endémique du banc d'Anguille, dans les Petites Antilles.
-Cette espèce a été décrite par le paléontologue E.D. Cope sur la base de restes fossiles découverts au XIXe siècle lors de l'exploitation des phosphates contenus dans les grottes d'Anguilla et de Saint-Martin[1],[2].
-On estime que le poids de cet animal était compris entre 50 et 200 kg, c'est-à-dire que les gros spécimens avaient un poids comparable à celui d'un ours noir[3]. C'est plus que le Capybara, le plus gros rongeur actuellement vivant, mais moins que Josephoartigasia monesi, le plus grand rongeur ayant existé connu à ce jour.
-Certains auteurs ont suggéré que la disparition de cette espèce ait pu résulter d'une sur-chasse par les populations amérindiennes anciennes[4]. Toutefois, il n'est pas établi que cette espèce ait été contemporaine de l'Homme. En effet, les spécimens fossiles découverts à la fin du XXe siècle sur l'île d'Anguilla ont été rapportés à la dernière période interglaciaire[5] tandis que les découvertes récentes réalisées à l’îlet Coco (Saint-Barthélemy) sont datés de 400 à 500 000 ans[6]. Aucun ossement n'a pour l'instant été découvert dans un site archéologique pré-colombien.
+Cette espèce a été décrite par le paléontologue E.D. Cope sur la base de restes fossiles découverts au XIXe siècle lors de l'exploitation des phosphates contenus dans les grottes d'Anguilla et de Saint-Martin,.
+On estime que le poids de cet animal était compris entre 50 et 200 kg, c'est-à-dire que les gros spécimens avaient un poids comparable à celui d'un ours noir. C'est plus que le Capybara, le plus gros rongeur actuellement vivant, mais moins que Josephoartigasia monesi, le plus grand rongeur ayant existé connu à ce jour.
+Certains auteurs ont suggéré que la disparition de cette espèce ait pu résulter d'une sur-chasse par les populations amérindiennes anciennes. Toutefois, il n'est pas établi que cette espèce ait été contemporaine de l'Homme. En effet, les spécimens fossiles découverts à la fin du XXe siècle sur l'île d'Anguilla ont été rapportés à la dernière période interglaciaire tandis que les découvertes récentes réalisées à l’îlet Coco (Saint-Barthélemy) sont datés de 400 à 500 000 ans. Aucun ossement n'a pour l'instant été découvert dans un site archéologique pré-colombien.
 Amblyrhiza inundata est la seule espèce du genre Amblyrhiza de la famille fossile des Heptaxodontidae.
 </t>
         </is>
